--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832337.634273625</v>
+        <v>1792374.351334431</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914464</v>
+        <v>426806.9758914461</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478706</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.8330857361503</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>99.32052515928247</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>4.12918023766857</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16776090941369</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>25.13135025360947</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>43.99936455428442</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5810588664028</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>28.88985408777983</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>126.358590200387</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>93.47809845804669</v>
+        <v>267.0148852302061</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>146.6990740087021</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>109.2563341216247</v>
       </c>
       <c r="G12" t="n">
         <v>136.64958867533</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>13.08993799274048</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>214.8218811091771</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>189.4950014944316</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.5042845838634</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1742,7 +1742,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>47.47529300550337</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>131.9680216153334</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>356.9001470237275</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>176.637753572798</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>17.44731957864619</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>52.75891269386214</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>73.66757925108466</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>181.2373856626199</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>91.30242445636635</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
@@ -2140,7 +2140,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>193.5433404074103</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.22053326701151</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26.73110927253577</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>99.66055066198773</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2481,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>92.22805444301257</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>44.41568638565872</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2933237371889</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.1084146912875</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
-        <v>105.5255478677685</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>13.08993799274015</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.02824702142989</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>393.4542299780836</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>31.18931817999793</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.8655341270501</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>73.66757925108459</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>133.0990837959586</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>110.6440585833986</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>164.1254863648505</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>126.7984012085845</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>66.65784783703924</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>220.3919200019614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>143.0575363715575</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>112.7964205214912</v>
       </c>
     </row>
     <row r="37">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.7960563893068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>124.6168908369413</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.3325316074242</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>83.88973149922681</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
@@ -3562,13 +3562,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>108.2912514701849</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>38.71315398810321</v>
+        <v>47.55828155274813</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>113.0650471518531</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>33.93856590774162</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>124.4199438792628</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.90757898338457</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.91737409206875</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>242.3286278324222</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>210.0628465622727</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.6321872928792</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>128.5042845838632</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>47.77250330710059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>13.19917922193403</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="C3" t="n">
-        <v>688.4345967823949</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D3" t="n">
-        <v>539.5001871211437</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>380.2627321156882</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>233.7281741425731</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>529.4760534768332</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>234.7731431109335</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>219.3158324895849</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>219.3158324895849</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X5" t="n">
-        <v>104.5536560184564</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5536560184564</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.8382100532927</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>489.203140025706</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>489.203140025706</v>
       </c>
       <c r="X6" t="n">
-        <v>521.0535470733607</v>
+        <v>489.203140025706</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.0535470733607</v>
+        <v>489.203140025706</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>502.8591282797204</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C9" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D9" t="n">
-        <v>222.9499078454769</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>222.9499078454769</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>458.1020160772196</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>222.9499078454769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>222.9499078454769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>222.9499078454769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>222.9499078454769</v>
+        <v>836.4222159142857</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -5004,10 +5004,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1341.378161866803</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="C11" t="n">
-        <v>972.4156449263917</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="D11" t="n">
-        <v>972.4156449263917</v>
+        <v>736.719423745026</v>
       </c>
       <c r="E11" t="n">
-        <v>972.4156449263917</v>
+        <v>736.719423745026</v>
       </c>
       <c r="F11" t="n">
-        <v>561.4297401367842</v>
+        <v>736.719423745026</v>
       </c>
       <c r="G11" t="n">
-        <v>143.2420742073579</v>
+        <v>318.5317578155997</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
         <v>795.0052981540045</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T11" t="n">
-        <v>2371.897027894854</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2118.117333906737</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V11" t="n">
-        <v>2118.117333906737</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W11" t="n">
-        <v>2118.117333906737</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X11" t="n">
-        <v>2118.117333906737</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="Y11" t="n">
-        <v>1727.978001930925</v>
+        <v>1094.985122351776</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D12" t="n">
-        <v>399.5506594257333</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E12" t="n">
-        <v>399.5506594257333</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F12" t="n">
-        <v>253.0161014526182</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883254</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137187</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="C13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="D13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="E13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371205</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6297039190408</v>
+        <v>206.6297039190409</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345759</v>
+        <v>336.100314134576</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420814</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801512</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581506</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581506</v>
       </c>
       <c r="W13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="X13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1037.003002339033</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="C14" t="n">
-        <v>1037.003002339033</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="D14" t="n">
-        <v>1037.003002339033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E14" t="n">
-        <v>651.2147497407886</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F14" t="n">
-        <v>240.2288449511811</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
         <v>48.81975253256327</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>2187.207932640046</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V14" t="n">
-        <v>2187.207932640046</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W14" t="n">
-        <v>2187.207932640046</v>
+        <v>1468.450880612856</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.742174378966</v>
+        <v>1094.985122351776</v>
       </c>
       <c r="Y14" t="n">
-        <v>1423.602842403155</v>
+        <v>1094.985122351776</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L15" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5390,19 +5390,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1788.426568192975</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1534.189211464774</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1326.337711259241</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1118.577412494287</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U16" t="n">
-        <v>351.4590821581505</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V16" t="n">
-        <v>96.77459395226364</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1311.479799318116</v>
+        <v>803.5705220712192</v>
       </c>
       <c r="C17" t="n">
-        <v>942.5172823777041</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="D17" t="n">
-        <v>764.0953090718475</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5545,22 +5545,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V17" t="n">
-        <v>2440.987626628164</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.218971358049</v>
+        <v>1537.541479346165</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.218971358049</v>
+        <v>1164.075721085085</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.079639382237</v>
+        <v>1164.075721085085</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F18" t="n">
-        <v>221.5857653620315</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>173.0428591227606</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>66.44330766250891</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5600,46 +5600,46 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M18" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>421.1644058767071</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>252.2282229488002</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1115835364644</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>102.1115835364644</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>102.1115835364644</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1115835364644</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1115835364644</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>602.8128707069468</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="W19" t="n">
-        <v>602.8128707069468</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X19" t="n">
-        <v>602.8128707069468</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>602.8128707069468</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>417.782269472975</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="C20" t="n">
-        <v>48.81975253256327</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E20" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2348.762955460117</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2129.148350791803</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.224081305859</v>
+        <v>1875.368656803686</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.224081305859</v>
+        <v>1544.305769460115</v>
       </c>
       <c r="W20" t="n">
-        <v>1364.455426035745</v>
+        <v>1191.537114190001</v>
       </c>
       <c r="X20" t="n">
-        <v>990.9896677746653</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="Y20" t="n">
-        <v>600.8503357988536</v>
+        <v>818.0713559289213</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5870,13 +5870,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1560.249064262689</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
         <v>48.81975253256327</v>
@@ -5931,31 +5931,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>602.8128707069468</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V22" t="n">
-        <v>602.8128707069468</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W22" t="n">
-        <v>313.3957006699862</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X22" t="n">
-        <v>85.40614977196884</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.40614977196884</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>897.1619452939262</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C23" t="n">
-        <v>897.1619452939262</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D23" t="n">
-        <v>897.1619452939262</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E23" t="n">
-        <v>897.1619452939262</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>897.1619452939262</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>478.9742793645</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>149.48697542346</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
@@ -6019,22 +6019,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>1636.530440628162</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>1283.761785358048</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X23" t="n">
-        <v>1283.761785358048</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y23" t="n">
-        <v>1283.761785358048</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,52 +6068,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L24" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M24" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="C25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="D25" t="n">
-        <v>2440.987626628164</v>
+        <v>262.7842973916007</v>
       </c>
       <c r="E25" t="n">
-        <v>2293.07453304577</v>
+        <v>262.7842973916007</v>
       </c>
       <c r="F25" t="n">
-        <v>2293.07453304577</v>
+        <v>262.7842973916007</v>
       </c>
       <c r="G25" t="n">
-        <v>2199.914882093232</v>
+        <v>93.68408221504683</v>
       </c>
       <c r="H25" t="n">
-        <v>2041.273729646137</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>1901.925068395296</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="Y25" t="n">
-        <v>2440.987626628164</v>
+        <v>412.9009368039365</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1731.517493842615</v>
+        <v>1249.93060056404</v>
       </c>
       <c r="C26" t="n">
-        <v>1362.554976902203</v>
+        <v>1249.93060056404</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.289278295453</v>
+        <v>1249.93060056404</v>
       </c>
       <c r="E26" t="n">
-        <v>618.5010256972087</v>
+        <v>864.142347965796</v>
       </c>
       <c r="F26" t="n">
-        <v>207.5151209076011</v>
+        <v>453.1564431761885</v>
       </c>
       <c r="G26" t="n">
-        <v>207.5151209076011</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>207.5151209076011</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>2118.117333906737</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>2118.117333906737</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W26" t="n">
-        <v>2118.117333906737</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="X26" t="n">
-        <v>2118.117333906737</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="Y26" t="n">
-        <v>2118.117333906737</v>
+        <v>1636.530440628162</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>850.7452172829803</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>676.2921880018533</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>527.3577783406021</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>368.1203233351466</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6341,16 +6341,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1688.809710001737</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1434.572353273535</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1226.720853068002</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>1018.960554303048</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6405,31 +6405,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>592.6833282610578</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>592.6833282610578</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U28" t="n">
-        <v>303.5042407384502</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118968</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2050.848294652352</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C29" t="n">
-        <v>1681.885777711941</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D29" t="n">
-        <v>1323.62007910519</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>937.8318265069458</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>937.8318265069458</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6505,10 +6505,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="X29" t="n">
-        <v>2440.987626628164</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="Y29" t="n">
-        <v>2050.848294652352</v>
+        <v>2019.343932854375</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,25 +6542,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6642,28 +6642,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>492.8476847200272</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V31" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W31" t="n">
-        <v>276.8093034305806</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>123.23144874578</v>
       </c>
       <c r="Y31" t="n">
         <v>48.81975253256327</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>938.0140410570359</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C32" t="n">
-        <v>569.0515241166243</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D32" t="n">
-        <v>569.0515241166243</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E32" t="n">
-        <v>183.26327151838</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>183.26327151838</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
         <v>48.81975253256327</v>
@@ -6700,7 +6700,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K32" t="n">
         <v>412.307967997759</v>
@@ -6712,40 +6712,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V32" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.218971358049</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="X32" t="n">
-        <v>1714.753213096969</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y32" t="n">
-        <v>1324.613881121158</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>610.1257266326368</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E33" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F33" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6812,19 +6812,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1857.795356864263</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V33" t="n">
-        <v>1622.64324863252</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1368.405891904318</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1160.554391698786</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>952.7940929338317</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="C34" t="n">
-        <v>343.6227936128668</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="D34" t="n">
-        <v>343.6227936128668</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="E34" t="n">
-        <v>195.7097000304736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256327</v>
@@ -6882,28 +6882,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>512.5589765407736</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>512.5589765407736</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="U34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="V34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="W34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="X34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="Y34" t="n">
-        <v>512.5589765407736</v>
+        <v>357.2686289599586</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1784.143529360557</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.143529360557</v>
+        <v>959.190856092436</v>
       </c>
       <c r="D35" t="n">
-        <v>1425.877830753807</v>
+        <v>600.9251574856855</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.089578155562</v>
+        <v>600.9251574856855</v>
       </c>
       <c r="F35" t="n">
-        <v>629.1036733659547</v>
+        <v>600.9251574856855</v>
       </c>
       <c r="G35" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
         <v>795.0052981540048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>2115.206416704128</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>1784.143529360557</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>1784.143529360557</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X35" t="n">
-        <v>1784.143529360557</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y35" t="n">
-        <v>1784.143529360557</v>
+        <v>1714.753213096969</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F36" t="n">
-        <v>221.5857653620315</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7061,7 +7061,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="37">
@@ -7074,19 +7074,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="C37" t="n">
-        <v>640.638169680758</v>
+        <v>471.7019867528511</v>
       </c>
       <c r="D37" t="n">
-        <v>490.5215302684222</v>
+        <v>321.5853473405153</v>
       </c>
       <c r="E37" t="n">
-        <v>342.6084366860291</v>
+        <v>321.5853473405153</v>
       </c>
       <c r="F37" t="n">
-        <v>207.4609049796586</v>
+        <v>174.695399842605</v>
       </c>
       <c r="G37" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
         <v>48.81975253256327</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="C38" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="D38" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>710.7776524088827</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>292.5899864794564</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7174,13 +7174,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7192,34 +7192,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S38" t="n">
-        <v>2356.250524103692</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T38" t="n">
-        <v>2136.635919435379</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U38" t="n">
-        <v>1882.856225447261</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="V38" t="n">
-        <v>1551.793338103691</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="W38" t="n">
-        <v>1199.024682833577</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="X38" t="n">
-        <v>825.5589245724968</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="Y38" t="n">
-        <v>435.419592596685</v>
+        <v>1508.363397262612</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7298,7 +7298,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>988.7751048338188</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2186.303138422277</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C40" t="n">
-        <v>2186.303138422277</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="D40" t="n">
-        <v>2036.186499009941</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="E40" t="n">
-        <v>1888.273405427548</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479969</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628164</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T40" t="n">
-        <v>2440.987626628164</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U40" t="n">
-        <v>2440.987626628164</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V40" t="n">
-        <v>2186.303138422277</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W40" t="n">
-        <v>2186.303138422277</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X40" t="n">
-        <v>2186.303138422277</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y40" t="n">
-        <v>2186.303138422277</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.3107917011598</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="C41" t="n">
-        <v>743.3107917011598</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D41" t="n">
-        <v>743.3107917011598</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E41" t="n">
-        <v>743.3107917011598</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F41" t="n">
-        <v>743.3107917011598</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G41" t="n">
-        <v>325.1231257717336</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U41" t="n">
-        <v>2187.207932640046</v>
+        <v>1936.722395589187</v>
       </c>
       <c r="V41" t="n">
-        <v>1856.145045296475</v>
+        <v>1605.659508245617</v>
       </c>
       <c r="W41" t="n">
-        <v>1503.376390026361</v>
+        <v>1605.659508245617</v>
       </c>
       <c r="X41" t="n">
-        <v>1129.910631765282</v>
+        <v>1232.193749984537</v>
       </c>
       <c r="Y41" t="n">
-        <v>1129.910631765282</v>
+        <v>1232.193749984537</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>976.4219282721347</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C42" t="n">
-        <v>801.9688989910077</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D42" t="n">
-        <v>653.0344893297564</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E42" t="n">
-        <v>493.7970343243009</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>347.2624763511859</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P42" t="n">
         <v>2283.899498973758</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W42" t="n">
-        <v>1560.249064262689</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.397564057157</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y42" t="n">
-        <v>1144.637265292203</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>238.0405878924782</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>91.15064039456789</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>91.15064039456789</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>565.9741554463453</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>434.6080051308075</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="C44" t="n">
-        <v>434.6080051308075</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D44" t="n">
-        <v>434.6080051308075</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E44" t="n">
-        <v>48.81975253256327</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7648,13 +7648,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U44" t="n">
-        <v>1717.224081305859</v>
+        <v>1907.506031476619</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.161193962289</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="W44" t="n">
-        <v>1033.392538692174</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="X44" t="n">
-        <v>821.2078451949293</v>
+        <v>1576.443144133049</v>
       </c>
       <c r="Y44" t="n">
-        <v>821.2078451949293</v>
+        <v>1576.443144133049</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7730,49 +7730,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1893.77636876425</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1658.624260532507</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1404.386903804306</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1196.535403598773</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>988.7751048338188</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.9009368039367</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C46" t="n">
-        <v>243.9647538760298</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D46" t="n">
-        <v>243.9647538760298</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>412.9009368039367</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="V46" t="n">
-        <v>412.9009368039367</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="W46" t="n">
-        <v>412.9009368039367</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="X46" t="n">
-        <v>412.9009368039367</v>
+        <v>399.5684325393569</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.9009368039367</v>
+        <v>399.5684325393569</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>268.6397271670517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725692</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K15" t="n">
-        <v>233.1030882730268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>340.4824716403222</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>245.6177531937815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928321</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,7 +11378,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>232.7143324435829</v>
+        <v>59.17754567142345</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23311,22 +23311,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.745991555936655</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>35.8128782717592</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>124.8652366455925</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617341</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407323</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23472,13 +23472,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>139.8611605115058</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>224.5107877757003</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.02889906600399</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>157.0547409226243</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23709,16 +23709,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>239.0477053310876</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>93.74163377370374</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>25.83369463975305</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>178.045288047885</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.05747717687822</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>85.19626194447088</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23949,13 +23949,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>178.4700640727434</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>201.4964560008607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.16343699687179</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>12.22964479606713</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>101.7346413713215</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24183,19 +24183,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1093603465914</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>338.5417824984718</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>60.81474169293777</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>75.18115858177576</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>112.6390545369656</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>13.71246553294304</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>3.366877663638036</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>154.3192750320482</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>203.8497504551223</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>20.55155929204841</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>338.5417824984711</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
-        <v>42.26952737435624</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
         <v>225.4598605480533</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>144.9170741010102</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>280.9067054741734</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>259.0870420950704</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>61.77024252613214</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25122,13 +25122,13 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
-        <v>24.33666029282188</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>158.802012711014</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>193.6138692681705</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>108.1843606766787</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
     </row>
     <row r="37">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>11.6249916336244</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>42.79232218784703</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>84.85989929420538</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.57612995401134</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>97.39144430711946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>106.707894034828</v>
+        <v>97.86276647018312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
@@ -25608,7 +25608,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>213.1273837497765</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>217.3033311404946</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>12.22964479606718</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>115.1471619392397</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25836,19 +25836,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>139.9606233844834</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>8.913269215814012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>159.6682541161964</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>97.39144430711943</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>98.66145933946859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>273.0881174254476</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609305.3627074328</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609305.3627074331</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609305.3627074331</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609305.3627074327</v>
+        <v>609305.3627074328</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609305.3627074328</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609305.3627074327</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
   </sheetData>
@@ -26322,22 +26322,22 @@
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>366042.2311676204</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="F2" t="n">
         <v>366042.2311676204</v>
       </c>
       <c r="G2" t="n">
+        <v>366042.2311676205</v>
+      </c>
+      <c r="H2" t="n">
         <v>366042.2311676203</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>366042.2311676205</v>
       </c>
-      <c r="I2" t="n">
-        <v>366042.2311676204</v>
-      </c>
       <c r="J2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="K2" t="n">
         <v>366042.2311676205</v>
@@ -26346,13 +26346,13 @@
         <v>366042.2311676203</v>
       </c>
       <c r="M2" t="n">
+        <v>366042.2311676203</v>
+      </c>
+      <c r="N2" t="n">
+        <v>366042.2311676206</v>
+      </c>
+      <c r="O2" t="n">
         <v>366042.2311676205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>366042.2311676204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>366042.2311676204</v>
       </c>
       <c r="P2" t="n">
         <v>366042.2311676205</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327803</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109311</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26530,40 +26530,40 @@
         <v>201694.1300475511</v>
       </c>
       <c r="E6" t="n">
-        <v>-74342.03203605769</v>
+        <v>-81310.95660979008</v>
       </c>
       <c r="F6" t="n">
-        <v>295093.2670967224</v>
+        <v>288124.3425229904</v>
       </c>
       <c r="G6" t="n">
-        <v>295093.2670967224</v>
+        <v>288124.3425229902</v>
       </c>
       <c r="H6" t="n">
-        <v>295093.2670967225</v>
+        <v>288124.3425229901</v>
       </c>
       <c r="I6" t="n">
-        <v>295093.2670967224</v>
+        <v>288124.3425229902</v>
       </c>
       <c r="J6" t="n">
-        <v>232033.3244976161</v>
+        <v>225064.399923884</v>
       </c>
       <c r="K6" t="n">
-        <v>295093.2670967225</v>
+        <v>288124.3425229902</v>
       </c>
       <c r="L6" t="n">
-        <v>295093.2670967224</v>
+        <v>288124.3425229901</v>
       </c>
       <c r="M6" t="n">
-        <v>203079.0218156294</v>
+        <v>196110.0972418969</v>
       </c>
       <c r="N6" t="n">
-        <v>295093.2670967224</v>
+        <v>288124.3425229904</v>
       </c>
       <c r="O6" t="n">
-        <v>295093.2670967224</v>
+        <v>288124.3425229902</v>
       </c>
       <c r="P6" t="n">
-        <v>295093.2670967225</v>
+        <v>288124.3425229903</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
         <v>322.6158759445108</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.232617779382</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.232617779382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.232617779382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.0429600055611</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>187.5329255313623</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38.02299200392817</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>228.6714069117567</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>230.1036515511437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>24.39083643943997</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>147.5771487347063</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27748,19 +27748,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>188.8012225951408</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9811766033053</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.2949868753087</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,7 +27918,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27940,13 +27940,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>197.051527993195</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>79.32410557691739</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7786181105064</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31758,40 +31758,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548045</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
-        <v>164.9766803203078</v>
+        <v>164.9766803203079</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733203</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265084</v>
       </c>
       <c r="O11" t="n">
-        <v>218.5211886152591</v>
+        <v>218.5211886152592</v>
       </c>
       <c r="P11" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517341</v>
       </c>
       <c r="S11" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300722</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500888</v>
+        <v>5.67739094250089</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806462</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847295</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472367</v>
+        <v>65.5610243747237</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
-        <v>150.670744704085</v>
+        <v>150.6707447040851</v>
       </c>
       <c r="M12" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
-        <v>180.479234222958</v>
+        <v>180.4792342229581</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876457</v>
+        <v>88.5793627687646</v>
       </c>
       <c r="R12" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858961</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518918</v>
+        <v>2.79701877351892</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.0456531899921478</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704295</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815277</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49530028892528</v>
+        <v>17.49530028892529</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280077</v>
+        <v>67.5906704028008</v>
       </c>
       <c r="L13" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223824</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526559</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613043</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188946</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501265</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762115</v>
       </c>
       <c r="R13" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K15" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471589</v>
       </c>
       <c r="K11" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537835</v>
       </c>
       <c r="M11" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419016</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.45228430891414</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35500,16 +35500,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>528.4798964831783</v>
       </c>
       <c r="O12" t="n">
-        <v>291.1467225562099</v>
+        <v>416.3693146658878</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691794</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990614</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>207.3158823613948</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.39668221774</v>
+        <v>374.1740901080622</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009465</v>
@@ -36685,7 +36685,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36922,7 +36922,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
-        <v>257.7341181179922</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37876,7 +37876,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q42" t="n">
         <v>158.6748764185921</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38025,7 +38025,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909531</v>
+        <v>446.9000637909527</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419015</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792374.351334431</v>
+        <v>1827693.106660199</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478708</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>198.7050131246913</v>
       </c>
     </row>
     <row r="3">
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>97.82367936158336</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>4.12918023766857</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>186.0850531309659</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>43.99936455428442</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>203.0886239796773</v>
       </c>
       <c r="Y9" t="n">
-        <v>126.358590200387</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>41.89771949413792</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0148852302061</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597627</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>109.2563341216247</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>88.59211149845176</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>13.08993799274048</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>54.52036364683892</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>214.8218811091771</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>73.45261652950857</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>46.12739053735471</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>119.8845921763328</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>131.9680216153334</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>356.9001470237275</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>185.4703823393588</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>17.44731957864619</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.47529300550318</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>73.66757925108466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>219.7802289711314</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>91.30242445636635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>141.605924235581</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.47529300550337</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>26.73110927253577</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.3102587348938528</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3677099213027</v>
+        <v>104.4814346654902</v>
       </c>
       <c r="U24" t="n">
         <v>225.8957288909827</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>47.23959131629399</v>
       </c>
       <c r="H25" t="n">
-        <v>44.41568638565872</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2933237371889</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>152.5732626013525</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>13.08993799274015</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>108.0529342638478</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>372.3372057966914</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>31.18931817999793</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.66757925108459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>321.8647601584466</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>110.6440585833986</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,11 +3122,11 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>43.76331341951682</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>66.65784783703924</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>145.4297492890001</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>220.3919200019614</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>212.5366242754421</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.7964205214912</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>124.6168908369413</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>66.15405654653215</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>241.3325316074242</v>
+        <v>47.2212412335921</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.55828155274813</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>73.66757925108487</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>220.7676082395922</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>33.93856590774162</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>57.47607876877139</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>17.44731957864654</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.90757898338457</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>81.02828297723656</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>242.3286278324222</v>
+        <v>30.8598717606308</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>111.6321872928792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975093</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>13.19917922193403</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>467.067986854209</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.3558523848238</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4415,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y3" t="n">
-        <v>529.4760534768332</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>241.7186438601369</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>241.7186438601369</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>241.7186438601369</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>234.7731431109335</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>219.3158324895849</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>219.3158324895849</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>485.167420504237</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>241.7186438601369</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.7186438601369</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.203140025706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>314.750110744579</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>489.203140025706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>489.203140025706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>489.203140025706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>489.203140025706</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D8" t="n">
         <v>53.75394372784808</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>104.5536560184564</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>668.2068788942177</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C9" t="n">
-        <v>668.2068788942177</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4925,10 +4925,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>758.9171312887399</v>
       </c>
       <c r="Y9" t="n">
-        <v>836.4222159142857</v>
+        <v>551.1568325237861</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1094.985122351776</v>
+        <v>1249.801555974595</v>
       </c>
       <c r="C11" t="n">
-        <v>1094.985122351776</v>
+        <v>1249.801555974595</v>
       </c>
       <c r="D11" t="n">
-        <v>736.719423745026</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E11" t="n">
-        <v>736.719423745026</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F11" t="n">
-        <v>736.719423745026</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G11" t="n">
-        <v>318.5317578155997</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
         <v>795.0052981540045</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894855</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>1821.21953588297</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W11" t="n">
-        <v>1468.450880612856</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="X11" t="n">
-        <v>1094.985122351776</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="Y11" t="n">
-        <v>1094.985122351776</v>
+        <v>1249.801555974595</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>779.834467487422</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C12" t="n">
-        <v>605.381438206295</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D12" t="n">
-        <v>456.4470285450437</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E12" t="n">
-        <v>297.2095735395882</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F12" t="n">
-        <v>186.8496400834017</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G12" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>81.93751399838828</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>318.2287647883254</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>697.3559079137187</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5147,25 +5147,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521038</v>
+        <v>2351.500645316596</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368207</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U12" t="n">
-        <v>1853.051068437921</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V12" t="n">
-        <v>1617.898960206178</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.661603477977</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X12" t="n">
-        <v>1155.810103272444</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y12" t="n">
-        <v>948.0498045074901</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.04191212119002</v>
+        <v>357.5775443919943</v>
       </c>
       <c r="C13" t="n">
-        <v>62.04191212119002</v>
+        <v>357.5775443919943</v>
       </c>
       <c r="D13" t="n">
-        <v>62.04191212119002</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E13" t="n">
-        <v>62.04191212119002</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F13" t="n">
-        <v>62.04191212119002</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G13" t="n">
-        <v>62.04191212119002</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H13" t="n">
-        <v>62.04191212119002</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371205</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801512</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807583</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581506</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V13" t="n">
-        <v>351.4590821581506</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W13" t="n">
-        <v>62.04191212119002</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X13" t="n">
-        <v>62.04191212119002</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.04191212119002</v>
+        <v>357.5775443919943</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1094.985122351776</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="C14" t="n">
-        <v>1094.985122351776</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="D14" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F14" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
         <v>48.81975253256327</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>1821.21953588297</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W14" t="n">
-        <v>1468.450880612856</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="X14" t="n">
-        <v>1094.985122351776</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="Y14" t="n">
-        <v>1094.985122351776</v>
+        <v>1565.746325799387</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015548</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960993</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F15" t="n">
-        <v>186.8496400834017</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G15" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O15" t="n">
         <v>1970.07121469245</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T16" t="n">
-        <v>640.638169680758</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="U16" t="n">
-        <v>640.638169680758</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V16" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437974</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>803.5705220712192</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="C17" t="n">
-        <v>434.6080051308075</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D17" t="n">
-        <v>434.6080051308075</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E17" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
         <v>48.81975253256327</v>
@@ -5545,22 +5545,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2221.37302195985</v>
+        <v>2253.643806083357</v>
       </c>
       <c r="U17" t="n">
-        <v>2221.37302195985</v>
+        <v>1999.864112095239</v>
       </c>
       <c r="V17" t="n">
-        <v>1890.310134616279</v>
+        <v>1999.864112095239</v>
       </c>
       <c r="W17" t="n">
-        <v>1537.541479346165</v>
+        <v>1999.864112095239</v>
       </c>
       <c r="X17" t="n">
-        <v>1164.075721085085</v>
+        <v>1626.398353834159</v>
       </c>
       <c r="Y17" t="n">
-        <v>1164.075721085085</v>
+        <v>1236.259021858348</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>940.2321985945478</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>765.7791693134208</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>616.8447596521695</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>457.607304646714</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F18" t="n">
-        <v>311.072746673599</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G18" t="n">
-        <v>173.0428591227606</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>66.44330766250891</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>2013.448799545047</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1778.296691313304</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1524.059334585103</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1316.20783437957</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>1108.447535614616</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5703,16 +5703,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>640.638169680758</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U19" t="n">
-        <v>640.638169680758</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V19" t="n">
-        <v>566.2264734675412</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W19" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
         <v>48.81975253256327</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>818.0713559289213</v>
+        <v>1595.157855854921</v>
       </c>
       <c r="C20" t="n">
-        <v>818.0713559289213</v>
+        <v>1595.157855854921</v>
       </c>
       <c r="D20" t="n">
-        <v>459.8056573221708</v>
+        <v>1236.89215724817</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>851.1039046499259</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>851.1039046499259</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>432.9162387204996</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2348.762955460117</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2129.148350791803</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U20" t="n">
-        <v>1875.368656803686</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V20" t="n">
-        <v>1544.305769460115</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W20" t="n">
-        <v>1191.537114190001</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X20" t="n">
-        <v>818.0713559289213</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="Y20" t="n">
-        <v>818.0713559289213</v>
+        <v>1981.757695919042</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.953720827627</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O21" t="n">
-        <v>2127.159342346856</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5943,16 +5943,16 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>96.77459395226364</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W22" t="n">
-        <v>96.77459395226364</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="X22" t="n">
-        <v>96.77459395226364</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y22" t="n">
         <v>48.81975253256327</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1290.78269632715</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C23" t="n">
         <v>1263.781575849841</v>
@@ -5980,13 +5980,13 @@
         <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J23" t="n">
         <v>145.9660485697318</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V23" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.834140551284</v>
       </c>
       <c r="W23" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="X23" t="n">
-        <v>2067.521868367084</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y23" t="n">
-        <v>1677.382536391272</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.9009368039365</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C25" t="n">
-        <v>412.9009368039365</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D25" t="n">
-        <v>262.7842973916007</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="E25" t="n">
-        <v>262.7842973916007</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="F25" t="n">
-        <v>262.7842973916007</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="G25" t="n">
-        <v>93.68408221504683</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K25" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>412.9009368039365</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W25" t="n">
-        <v>412.9009368039365</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X25" t="n">
-        <v>412.9009368039365</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.9009368039365</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1249.93060056404</v>
+        <v>1133.057826012259</v>
       </c>
       <c r="C26" t="n">
-        <v>1249.93060056404</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="D26" t="n">
-        <v>1249.93060056404</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E26" t="n">
-        <v>864.142347965796</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F26" t="n">
-        <v>453.1564431761885</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6226,7 +6226,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T26" t="n">
-        <v>2221.37302195985</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.593327971733</v>
+        <v>1816.889368625944</v>
       </c>
       <c r="V26" t="n">
-        <v>1636.530440628162</v>
+        <v>1485.826481282373</v>
       </c>
       <c r="W26" t="n">
-        <v>1636.530440628162</v>
+        <v>1133.057826012259</v>
       </c>
       <c r="X26" t="n">
-        <v>1636.530440628162</v>
+        <v>1133.057826012259</v>
       </c>
       <c r="Y26" t="n">
-        <v>1636.530440628162</v>
+        <v>1133.057826012259</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G27" t="n">
         <v>48.81975253256327</v>
@@ -6305,16 +6305,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
         <v>1557.865593173221</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
       <c r="C28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
       <c r="D28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
       <c r="E28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
       <c r="F28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>157.964130576854</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>351.4590821581503</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>351.4590821581503</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W28" t="n">
-        <v>62.04191212118968</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.04191212118968</v>
+        <v>157.964130576854</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1632.744092790253</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.781575849841</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>835.9038449955965</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>424.9179402059889</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256327</v>
@@ -6463,7 +6463,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X29" t="n">
-        <v>2409.483264830186</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y29" t="n">
-        <v>2019.343932854375</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="V31" t="n">
-        <v>640.638169680758</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="W31" t="n">
-        <v>351.2209996437974</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="X31" t="n">
-        <v>123.23144874578</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1263.781575849841</v>
+        <v>1290.782696327151</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.781575849841</v>
+        <v>921.820179386739</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.781575849841</v>
+        <v>921.820179386739</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9933232515971</v>
+        <v>536.0319267884947</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0074184619895</v>
+        <v>536.0319267884947</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X32" t="n">
-        <v>2040.520747889775</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.381415913963</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>357.2686289599586</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="C34" t="n">
-        <v>357.2686289599586</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="D34" t="n">
-        <v>357.2686289599586</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E34" t="n">
-        <v>357.2686289599586</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F34" t="n">
-        <v>357.2686289599586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
         <v>48.81975253256327</v>
@@ -6867,43 +6867,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>424.5997883913113</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>357.2686289599586</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>357.2686289599586</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>357.2686289599586</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W34" t="n">
-        <v>357.2686289599586</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="X34" t="n">
-        <v>357.2686289599586</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="Y34" t="n">
-        <v>357.2686289599586</v>
+        <v>493.7394330252025</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1328.153373032848</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C35" t="n">
-        <v>959.190856092436</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D35" t="n">
-        <v>600.9251574856855</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E35" t="n">
-        <v>600.9251574856855</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>600.9251574856855</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6937,7 +6937,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
         <v>412.3079679977591</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>2440.987626628164</v>
+        <v>2006.689563095767</v>
       </c>
       <c r="V35" t="n">
-        <v>2440.987626628164</v>
+        <v>2006.689563095767</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.218971358049</v>
+        <v>1653.920907825653</v>
       </c>
       <c r="X35" t="n">
-        <v>1714.753213096969</v>
+        <v>1653.920907825653</v>
       </c>
       <c r="Y35" t="n">
-        <v>1714.753213096969</v>
+        <v>1263.781575849841</v>
       </c>
     </row>
     <row r="36">
@@ -7016,49 +7016,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y36" t="n">
         <v>984.2244290244184</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.638169680758</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="C37" t="n">
-        <v>471.7019867528511</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="D37" t="n">
-        <v>321.5853473405153</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E37" t="n">
-        <v>321.5853473405153</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F37" t="n">
-        <v>174.695399842605</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
         <v>48.81975253256327</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X37" t="n">
-        <v>640.638169680758</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.638169680758</v>
+        <v>345.8263394428094</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1121.76355719849</v>
+        <v>1311.479799318116</v>
       </c>
       <c r="C38" t="n">
-        <v>1121.76355719849</v>
+        <v>1311.479799318116</v>
       </c>
       <c r="D38" t="n">
-        <v>1121.76355719849</v>
+        <v>1311.479799318116</v>
       </c>
       <c r="E38" t="n">
-        <v>1121.76355719849</v>
+        <v>925.6915467198719</v>
       </c>
       <c r="F38" t="n">
-        <v>710.7776524088827</v>
+        <v>514.7056419302644</v>
       </c>
       <c r="G38" t="n">
-        <v>292.5899864794564</v>
+        <v>96.51797600083813</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>1898.502729238424</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>1898.502729238424</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W38" t="n">
-        <v>1898.502729238424</v>
+        <v>2088.21897135805</v>
       </c>
       <c r="X38" t="n">
-        <v>1898.502729238424</v>
+        <v>2088.21897135805</v>
       </c>
       <c r="Y38" t="n">
-        <v>1508.363397262612</v>
+        <v>1698.079639382238</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E39" t="n">
-        <v>239.5596775960993</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F39" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J39" t="n">
         <v>112.9860412505444</v>
@@ -7265,10 +7265,10 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P39" t="n">
         <v>2283.899498973758</v>
@@ -7277,7 +7277,7 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
         <v>2222.939999577549</v>
@@ -7286,10 +7286,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W39" t="n">
         <v>1306.011707534488</v>
@@ -7298,7 +7298,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C40" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D40" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E40" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F40" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G40" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K40" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>424.5997883913116</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="V40" t="n">
-        <v>424.5997883913116</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="W40" t="n">
-        <v>424.5997883913116</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X40" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y40" t="n">
-        <v>424.5997883913116</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>845.5939099204151</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="C41" t="n">
-        <v>845.5939099204151</v>
+        <v>1370.556243950357</v>
       </c>
       <c r="D41" t="n">
-        <v>845.5939099204151</v>
+        <v>1012.290545343607</v>
       </c>
       <c r="E41" t="n">
-        <v>459.8056573221708</v>
+        <v>1012.290545343607</v>
       </c>
       <c r="F41" t="n">
-        <v>48.81975253256327</v>
+        <v>601.3046405539994</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,40 +7423,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>1936.722395589187</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>1605.659508245617</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W41" t="n">
-        <v>1605.659508245617</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X41" t="n">
-        <v>1232.193749984537</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y41" t="n">
-        <v>1232.193749984537</v>
+        <v>1757.156084014479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>922.6086434646021</v>
+        <v>940.2321985945482</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>765.7791693134212</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>616.84475965217</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>457.6073046467145</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>311.0727466735995</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>173.0428591227611</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J42" t="n">
         <v>112.9860412505444</v>
@@ -7496,19 +7496,19 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>697.355907913719</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O42" t="n">
-        <v>2158.207869599013</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7517,25 +7517,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2423.364071498218</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T42" t="n">
-        <v>2224.002748345386</v>
+        <v>2241.626303475333</v>
       </c>
       <c r="U42" t="n">
-        <v>1995.825244415101</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V42" t="n">
-        <v>1760.673136183358</v>
+        <v>1778.296691313305</v>
       </c>
       <c r="W42" t="n">
-        <v>1506.435779455157</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X42" t="n">
-        <v>1298.584279249624</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y42" t="n">
-        <v>1090.82398048467</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C43" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D43" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E43" t="n">
-        <v>238.0405878924782</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F43" t="n">
-        <v>91.15064039456789</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G43" t="n">
-        <v>91.15064039456789</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K43" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V43" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W43" t="n">
-        <v>385.9536814748714</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X43" t="n">
-        <v>385.9536814748714</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1576.443144133049</v>
+        <v>747.269573414015</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="D44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4947224030295</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G44" t="n">
         <v>378.3070564736033</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2152.282423226541</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U44" t="n">
-        <v>1907.506031476619</v>
+        <v>2228.537391058599</v>
       </c>
       <c r="V44" t="n">
-        <v>1576.443144133049</v>
+        <v>1897.474503715028</v>
       </c>
       <c r="W44" t="n">
-        <v>1576.443144133049</v>
+        <v>1897.474503715028</v>
       </c>
       <c r="X44" t="n">
-        <v>1576.443144133049</v>
+        <v>1524.008745453948</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.443144133049</v>
+        <v>1133.869413478137</v>
       </c>
     </row>
     <row r="45">
@@ -7709,16 +7709,16 @@
         <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E45" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.9199677091171</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C46" t="n">
-        <v>217.9199677091171</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="D46" t="n">
-        <v>217.9199677091171</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="E46" t="n">
-        <v>217.9199677091171</v>
+        <v>182.2848167158907</v>
       </c>
       <c r="F46" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>399.5684325393569</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>399.5684325393569</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W46" t="n">
-        <v>399.5684325393569</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X46" t="n">
-        <v>399.5684325393569</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y46" t="n">
-        <v>399.5684325393569</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>292.5201795090609</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>94.72888660085714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918564</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725692</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>340.4824716403222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817933</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>339.4781965639078</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>312.7853221265451</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>59.17754567142345</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35.8128782717592</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405352</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>70.20164229760302</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,13 +23433,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>124.8652366455925</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23472,19 +23472,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>164.0642897052559</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>139.8611605115058</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>296.2784841489604</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>101.317675027284</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
         <v>157.0547409226243</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>105.5752683717205</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>93.74163377370374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.83369463975305</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
@@ -23785,22 +23785,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>31.94807628227161</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>48.05747717687822</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>177.9845675425501</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>178.4700640727434</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>106.4122019304981</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.16343699687179</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24183,19 +24183,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>144.91707410101</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.1093603465914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>338.5417824984718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24265,13 +24265,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>348.9307099825191</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>92.88627525581254</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>120.1696217084943</v>
       </c>
       <c r="H25" t="n">
-        <v>112.6390545369656</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24417,16 +24417,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>13.71246553294304</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>98.66863444688371</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>154.3192750320482</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>49.00180665877646</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24657,16 +24657,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>41.66858347344055</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>338.5417824984711</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24894,7 +24894,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>154.1568831058875</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.9170741010102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>92.14102911168538</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>259.0870420950704</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>158.802012711014</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>141.0932490475909</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>193.6138692681705</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>38.70527277279416</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>42.79232218784703</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>152.4305968055626</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>84.85989929420538</v>
+        <v>278.9711896680375</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>97.86276647018312</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
         <v>137.955174638333</v>
@@ -25599,22 +25599,22 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>212.6197173962967</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>193.2381810305398</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>217.3033311404946</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>48.05747717687778</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>141.3464342174082</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>115.1471619392397</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25842,19 +25842,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>205.4947153593544</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>8.913269215814012</v>
+        <v>220.3820252876054</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>13.29063448143714</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26076,16 +26076,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>273.0881174254476</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609305.3627074331</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609305.3627074331</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074328</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609305.3627074328</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074328</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609305.3627074331</v>
+        <v>609305.3627074329</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609305.3627074329</v>
+        <v>609305.3627074331</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609305.3627074331</v>
+        <v>609305.3627074328</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>366042.2311676205</v>
       </c>
       <c r="F2" t="n">
+        <v>366042.2311676205</v>
+      </c>
+      <c r="G2" t="n">
         <v>366042.2311676204</v>
       </c>
-      <c r="G2" t="n">
-        <v>366042.2311676205</v>
-      </c>
       <c r="H2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="I2" t="n">
         <v>366042.2311676205</v>
@@ -26340,22 +26340,22 @@
         <v>366042.2311676205</v>
       </c>
       <c r="K2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676203</v>
       </c>
       <c r="L2" t="n">
         <v>366042.2311676203</v>
       </c>
       <c r="M2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="N2" t="n">
-        <v>366042.2311676206</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="O2" t="n">
         <v>366042.2311676205</v>
       </c>
       <c r="P2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327803</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109311</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26490,7 +26490,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="J5" t="n">
         <v>44136.03802033842</v>
@@ -26505,10 +26505,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120924.6985160032</v>
+        <v>120924.6985160033</v>
       </c>
       <c r="C6" t="n">
-        <v>201694.1300475508</v>
+        <v>201694.1300475509</v>
       </c>
       <c r="D6" t="n">
-        <v>201694.1300475511</v>
+        <v>201694.1300475509</v>
       </c>
       <c r="E6" t="n">
-        <v>-81310.95660979008</v>
+        <v>-75038.92449343079</v>
       </c>
       <c r="F6" t="n">
-        <v>288124.3425229904</v>
+        <v>294396.3746393493</v>
       </c>
       <c r="G6" t="n">
-        <v>288124.3425229902</v>
+        <v>294396.3746393492</v>
       </c>
       <c r="H6" t="n">
-        <v>288124.3425229901</v>
+        <v>294396.3746393492</v>
       </c>
       <c r="I6" t="n">
-        <v>288124.3425229902</v>
+        <v>294396.3746393493</v>
       </c>
       <c r="J6" t="n">
-        <v>225064.399923884</v>
+        <v>231336.4320402431</v>
       </c>
       <c r="K6" t="n">
-        <v>288124.3425229902</v>
+        <v>294396.3746393492</v>
       </c>
       <c r="L6" t="n">
-        <v>288124.3425229901</v>
+        <v>294396.3746393492</v>
       </c>
       <c r="M6" t="n">
-        <v>196110.0972418969</v>
+        <v>202382.1293582562</v>
       </c>
       <c r="N6" t="n">
-        <v>288124.3425229904</v>
+        <v>294396.3746393492</v>
       </c>
       <c r="O6" t="n">
-        <v>288124.3425229902</v>
+        <v>294396.3746393493</v>
       </c>
       <c r="P6" t="n">
-        <v>288124.3425229903</v>
+        <v>294396.3746393492</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>322.6158759445108</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26810,7 +26810,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="J4" t="n">
         <v>610.2469066570409</v>
@@ -26825,10 +26825,10 @@
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="O4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445109</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.232617779382</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5329255313623</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27466,13 +27466,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>47.24553303180052</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>228.6714069117567</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>24.39083643943997</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>188.8012225951408</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27791,16 +27791,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>314.9811766033053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>136.6037691983033</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27943,10 +27943,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>2.684361223800181</v>
       </c>
       <c r="Y9" t="n">
-        <v>79.32410557691739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.7786181105064</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K11" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253934</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O11" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P11" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.0558197925741</v>
+        <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517341</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300722</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589067</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K12" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L12" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N12" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336027</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252087</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858961</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778305</v>
+        <v>12.88941730778304</v>
       </c>
       <c r="T12" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049936</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K13" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223824</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501265</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042012</v>
+        <v>10.13860056042011</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228198</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929619</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>161.1784674257276</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K11" t="n">
-        <v>269.0322418464921</v>
+        <v>269.032241846492</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563178</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780293</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.45228430891414</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.39668221774</v>
+        <v>309.3596570595964</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831783</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508156</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691794</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225544</v>
+        <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>374.1740901080622</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36217,10 +36217,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q39" t="n">
         <v>158.6748764185921</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780294</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
-        <v>382.95671022767</v>
+        <v>351.5945614881186</v>
       </c>
       <c r="M42" t="n">
         <v>499.39668221774</v>
@@ -37876,10 +37876,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909527</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419015</v>
